--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/NGH CCA/8.0/NGH CCA accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/NGH CCA/8.0/NGH CCA accreditamento-checklist_V8.1.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\GatewayInLocale\A1#111GRUPPOGPI00\GPI_SPA\NGH CCA\8.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\FSE 2.0 Accreditamento\NGH_CCA\20230522_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3B18FD-6DEE-4A62-A38D-CB5D457ABEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00043BBF-C76A-44E2-9F7E-FB070FEEEF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="925">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -5486,7 +5486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -7649,10 +7651,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K410" sqref="K410"/>
+      <selection pane="bottomRight" activeCell="Q231" sqref="Q231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -15501,9 +15503,7 @@
       <c r="P231" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="Q231" s="25" t="s">
-        <v>890</v>
-      </c>
+      <c r="Q231" s="25"/>
       <c r="R231" s="26" t="s">
         <v>494</v>
       </c>
@@ -18927,9 +18927,7 @@
       <c r="N331" s="25"/>
       <c r="O331" s="25"/>
       <c r="P331" s="25"/>
-      <c r="Q331" s="25" t="s">
-        <v>890</v>
-      </c>
+      <c r="Q331" s="25"/>
       <c r="R331" s="26"/>
       <c r="S331" s="27"/>
       <c r="T331" s="28" t="s">
@@ -18967,9 +18965,7 @@
       <c r="N332" s="25"/>
       <c r="O332" s="25"/>
       <c r="P332" s="25"/>
-      <c r="Q332" s="25" t="s">
-        <v>890</v>
-      </c>
+      <c r="Q332" s="25"/>
       <c r="R332" s="26"/>
       <c r="S332" s="27"/>
       <c r="T332" s="28" t="s">
@@ -19007,9 +19003,7 @@
       <c r="N333" s="25"/>
       <c r="O333" s="25"/>
       <c r="P333" s="25"/>
-      <c r="Q333" s="25" t="s">
-        <v>890</v>
-      </c>
+      <c r="Q333" s="25"/>
       <c r="R333" s="26"/>
       <c r="S333" s="27"/>
       <c r="T333" s="28" t="s">
